--- a/Code/Results/Cases/Case_0_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_174/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1560048798849465</v>
+        <v>0.05022972311736851</v>
       </c>
       <c r="D2">
-        <v>0.002690189967543333</v>
+        <v>0.002596481040910703</v>
       </c>
       <c r="E2">
-        <v>0.0104832612441621</v>
+        <v>0.03896296869043603</v>
       </c>
       <c r="F2">
-        <v>1.686121163956116</v>
+        <v>0.8297402755171106</v>
       </c>
       <c r="G2">
-        <v>0.0007298144794755323</v>
+        <v>0.002360120135317106</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.168874456183801</v>
+        <v>1.062883758891857</v>
       </c>
       <c r="N2">
-        <v>3.854847619096603</v>
+        <v>1.704167092102523</v>
       </c>
       <c r="O2">
-        <v>5.597224529860569</v>
+        <v>2.782764423270464</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1342784090100082</v>
+        <v>0.04452652746790875</v>
       </c>
       <c r="D3">
-        <v>0.002248632818098173</v>
+        <v>0.002618837639710492</v>
       </c>
       <c r="E3">
-        <v>0.01199525086673603</v>
+        <v>0.04075240891142506</v>
       </c>
       <c r="F3">
-        <v>1.458039780798259</v>
+        <v>0.7788281866051818</v>
       </c>
       <c r="G3">
-        <v>0.0007373649473371158</v>
+        <v>0.002365023625394678</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.748958676234778</v>
+        <v>0.937194995681125</v>
       </c>
       <c r="N3">
-        <v>3.434054787162779</v>
+        <v>1.565259689879213</v>
       </c>
       <c r="O3">
-        <v>4.83882190161097</v>
+        <v>2.615858612385694</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1211588418065759</v>
+        <v>0.04104344696453666</v>
       </c>
       <c r="D4">
-        <v>0.002012634496843191</v>
+        <v>0.002637694685045489</v>
       </c>
       <c r="E4">
-        <v>0.01320770538417548</v>
+        <v>0.04194480194131778</v>
       </c>
       <c r="F4">
-        <v>1.321430133770505</v>
+        <v>0.7482004394339015</v>
       </c>
       <c r="G4">
-        <v>0.0007421249590002601</v>
+        <v>0.002368193659086967</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.492508428886723</v>
+        <v>0.8599235961473823</v>
       </c>
       <c r="N4">
-        <v>3.176493568502195</v>
+        <v>1.480164379174255</v>
       </c>
       <c r="O4">
-        <v>4.38507295364667</v>
+        <v>2.515560593174712</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1158598911893733</v>
+        <v>0.03962864026551927</v>
       </c>
       <c r="D5">
-        <v>0.001924127976121071</v>
+        <v>0.0026466433087311</v>
       </c>
       <c r="E5">
-        <v>0.01376760019819923</v>
+        <v>0.04245413219494054</v>
       </c>
       <c r="F5">
-        <v>1.266514708455404</v>
+        <v>0.7358766289481196</v>
       </c>
       <c r="G5">
-        <v>0.0007440974142790644</v>
+        <v>0.002369525663091264</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.388272961483594</v>
+        <v>0.8284112127897743</v>
       </c>
       <c r="N5">
-        <v>3.071712916807286</v>
+        <v>1.445540242789463</v>
       </c>
       <c r="O5">
-        <v>4.202783637757761</v>
+        <v>2.475230818006537</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1149826423361873</v>
+        <v>0.03939398544711992</v>
       </c>
       <c r="D6">
-        <v>0.001909862667252682</v>
+        <v>0.002648204828357592</v>
       </c>
       <c r="E6">
-        <v>0.01386439107606829</v>
+        <v>0.04254011675178226</v>
       </c>
       <c r="F6">
-        <v>1.257438571701258</v>
+        <v>0.733839714579787</v>
       </c>
       <c r="G6">
-        <v>0.0007444269572542288</v>
+        <v>0.002369749272842066</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.370978949251835</v>
+        <v>0.8231772060328524</v>
       </c>
       <c r="N6">
-        <v>3.054324210422209</v>
+        <v>1.439794245014582</v>
       </c>
       <c r="O6">
-        <v>4.172662236316853</v>
+        <v>2.468566667875507</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1210871966685687</v>
+        <v>0.04102434801980337</v>
       </c>
       <c r="D7">
-        <v>0.002011411285913312</v>
+        <v>0.0026378102842326</v>
       </c>
       <c r="E7">
-        <v>0.01321499689026862</v>
+        <v>0.04195157629721891</v>
       </c>
       <c r="F7">
-        <v>1.320686609409876</v>
+        <v>0.7480336019111746</v>
       </c>
       <c r="G7">
-        <v>0.0007421514258739879</v>
+        <v>0.00236821146006588</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.491101675488565</v>
+        <v>0.8594987036009201</v>
       </c>
       <c r="N7">
-        <v>3.175079772242896</v>
+        <v>1.479697206443177</v>
       </c>
       <c r="O7">
-        <v>4.382604416924266</v>
+        <v>2.515014503699888</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1484627243643502</v>
+        <v>0.04825930100385278</v>
       </c>
       <c r="D8">
-        <v>0.002529909997067037</v>
+        <v>0.002603109283699112</v>
       </c>
       <c r="E8">
-        <v>0.01094206525899644</v>
+        <v>0.03956044589440211</v>
       </c>
       <c r="F8">
-        <v>1.606697371715043</v>
+        <v>0.8120534132286537</v>
       </c>
       <c r="G8">
-        <v>0.0007323931087596881</v>
+        <v>0.00236177788609564</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.023752331359219</v>
+        <v>1.019567151825854</v>
       </c>
       <c r="N8">
-        <v>3.709574426509192</v>
+        <v>1.656233816454261</v>
       </c>
       <c r="O8">
-        <v>5.333016211175561</v>
+        <v>2.724758329641418</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2043016971306315</v>
+        <v>0.06260186451785898</v>
       </c>
       <c r="D9">
-        <v>0.003885306446301584</v>
+        <v>0.002576935179677164</v>
       </c>
       <c r="E9">
-        <v>0.009025779621381957</v>
+        <v>0.03562070579771159</v>
       </c>
       <c r="F9">
-        <v>2.200286298569836</v>
+        <v>0.9427030763401376</v>
       </c>
       <c r="G9">
-        <v>0.0007141643386990859</v>
+        <v>0.002350419041319843</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.083177127011723</v>
+        <v>1.332657205409831</v>
       </c>
       <c r="N9">
-        <v>4.765470530985681</v>
+        <v>2.003807651983607</v>
       </c>
       <c r="O9">
-        <v>7.310314459088943</v>
+        <v>3.153698670386632</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2472768603566635</v>
+        <v>0.07324368376204404</v>
       </c>
       <c r="D10">
-        <v>0.005184625996845327</v>
+        <v>0.002584865418734594</v>
       </c>
       <c r="E10">
-        <v>0.009626646041003717</v>
+        <v>0.03319132268827829</v>
       </c>
       <c r="F10">
-        <v>2.66495887731773</v>
+        <v>1.041938149870418</v>
       </c>
       <c r="G10">
-        <v>0.0007012049897353192</v>
+        <v>0.002342831306152507</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.876966551391405</v>
+        <v>1.562184349559118</v>
       </c>
       <c r="N10">
-        <v>5.548159174128102</v>
+        <v>2.259834130103627</v>
       </c>
       <c r="O10">
-        <v>8.862162957779049</v>
+        <v>3.480060638868622</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2674155585482936</v>
+        <v>0.07810979839661059</v>
       </c>
       <c r="D11">
-        <v>0.005868001345334051</v>
+        <v>0.002594729087533665</v>
       </c>
       <c r="E11">
-        <v>0.01045947484858534</v>
+        <v>0.03218897931814091</v>
       </c>
       <c r="F11">
-        <v>2.884792100130966</v>
+        <v>1.087817419313836</v>
       </c>
       <c r="G11">
-        <v>0.0006953726240148719</v>
+        <v>0.002339542050575915</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.243112361093694</v>
+        <v>1.666493541169388</v>
       </c>
       <c r="N11">
-        <v>5.906293511789215</v>
+        <v>2.376415712137828</v>
       </c>
       <c r="O11">
-        <v>9.597449493205261</v>
+        <v>3.631071661790202</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2751421801142868</v>
+        <v>0.07995623768339044</v>
       </c>
       <c r="D12">
-        <v>0.006142720493693687</v>
+        <v>0.002599393730248423</v>
       </c>
       <c r="E12">
-        <v>0.01086763743280628</v>
+        <v>0.03182435686227159</v>
       </c>
       <c r="F12">
-        <v>2.969469981078987</v>
+        <v>1.10529886242486</v>
       </c>
       <c r="G12">
-        <v>0.0006931701245221005</v>
+        <v>0.002338319708294123</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.382652033655432</v>
+        <v>1.705977296283237</v>
       </c>
       <c r="N12">
-        <v>6.042261564192472</v>
+        <v>2.420575034514911</v>
       </c>
       <c r="O12">
-        <v>9.880859951828313</v>
+        <v>3.688629756551165</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2734733670638434</v>
+        <v>0.0795584050670044</v>
       </c>
       <c r="D13">
-        <v>0.006082798482632157</v>
+        <v>0.002598347297459114</v>
       </c>
       <c r="E13">
-        <v>0.01077538768666386</v>
+        <v>0.03190221762754142</v>
       </c>
       <c r="F13">
-        <v>2.951165626021577</v>
+        <v>1.10152908695693</v>
       </c>
       <c r="G13">
-        <v>0.0006936442528606924</v>
+        <v>0.002338581930495338</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.352557312578966</v>
+        <v>1.697474483604935</v>
       </c>
       <c r="N13">
-        <v>6.012961959999359</v>
+        <v>2.411064044958039</v>
       </c>
       <c r="O13">
-        <v>9.819588081199811</v>
+        <v>3.676216864105584</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2680491190518524</v>
+        <v>0.07826163016889609</v>
       </c>
       <c r="D14">
-        <v>0.005890266290741408</v>
+        <v>0.002595094049638647</v>
       </c>
       <c r="E14">
-        <v>0.01049111726721907</v>
+        <v>0.03215868119045417</v>
       </c>
       <c r="F14">
-        <v>2.891728555138116</v>
+        <v>1.089253452849334</v>
       </c>
       <c r="G14">
-        <v>0.0006951913194513257</v>
+        <v>0.002339441022956251</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.254573554452861</v>
+        <v>1.669742216799932</v>
       </c>
       <c r="N14">
-        <v>5.917472352830089</v>
+        <v>2.380048499987879</v>
       </c>
       <c r="O14">
-        <v>9.620661465642968</v>
+        <v>3.635799473922589</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.264740209809645</v>
+        <v>0.07746781023817562</v>
       </c>
       <c r="D15">
-        <v>0.005774497493268527</v>
+        <v>0.002593223282014279</v>
       </c>
       <c r="E15">
-        <v>0.01032947701669062</v>
+        <v>0.03231772341431594</v>
       </c>
       <c r="F15">
-        <v>2.85551504339557</v>
+        <v>1.081748392304348</v>
       </c>
       <c r="G15">
-        <v>0.0006961396408859717</v>
+        <v>0.002339970262744906</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.194676583758394</v>
+        <v>1.65275330844716</v>
       </c>
       <c r="N15">
-        <v>5.859029439257256</v>
+        <v>2.361052082366257</v>
       </c>
       <c r="O15">
-        <v>9.499485054458717</v>
+        <v>3.611091510820074</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2459739072170777</v>
+        <v>0.07292618854189925</v>
       </c>
       <c r="D16">
-        <v>0.005142041086273252</v>
+        <v>0.002584349236775196</v>
       </c>
       <c r="E16">
-        <v>0.009584487659841656</v>
+        <v>0.03325891042056028</v>
       </c>
       <c r="F16">
-        <v>2.650780153528558</v>
+        <v>1.038954828676367</v>
       </c>
       <c r="G16">
-        <v>0.000701587170863742</v>
+        <v>0.002343049524026414</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.853152961679385</v>
+        <v>1.555365327726264</v>
       </c>
       <c r="N16">
-        <v>5.524800394648366</v>
+        <v>2.252217200210737</v>
       </c>
       <c r="O16">
-        <v>8.81476278290279</v>
+        <v>3.470243585268179</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2346228683853582</v>
+        <v>0.07014657675364333</v>
       </c>
       <c r="D17">
-        <v>0.004779452102425807</v>
+        <v>0.002580528750693034</v>
       </c>
       <c r="E17">
-        <v>0.009278941755299641</v>
+        <v>0.03386274044238213</v>
       </c>
       <c r="F17">
-        <v>2.527491388375466</v>
+        <v>1.012892487579265</v>
       </c>
       <c r="G17">
-        <v>0.0007049431866585976</v>
+        <v>0.002344980062871676</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.645040125888926</v>
+        <v>1.495593676952737</v>
       </c>
       <c r="N17">
-        <v>5.320329867438716</v>
+        <v>2.185476844693426</v>
       </c>
       <c r="O17">
-        <v>8.402727489768722</v>
+        <v>3.3844954697106</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2281484338127342</v>
+        <v>0.06855017152440723</v>
       </c>
       <c r="D18">
-        <v>0.004579405368792422</v>
+        <v>0.002578918355105486</v>
       </c>
       <c r="E18">
-        <v>0.009155018256230107</v>
+        <v>0.03421971325494155</v>
       </c>
       <c r="F18">
-        <v>2.45735983619096</v>
+        <v>0.9979713414022626</v>
       </c>
       <c r="G18">
-        <v>0.0007068795980035307</v>
+        <v>0.002346105755448952</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.525803135414762</v>
+        <v>1.46120488248124</v>
       </c>
       <c r="N18">
-        <v>5.202916747773429</v>
+        <v>2.14710050673915</v>
       </c>
       <c r="O18">
-        <v>8.168446719631845</v>
+        <v>3.335414752801285</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2259651937930158</v>
+        <v>0.0680100562507846</v>
       </c>
       <c r="D19">
-        <v>0.004513059581944034</v>
+        <v>0.002578473026407124</v>
       </c>
       <c r="E19">
-        <v>0.009121614844090686</v>
+        <v>0.03434223334352637</v>
       </c>
       <c r="F19">
-        <v>2.433742495775462</v>
+        <v>0.9929311257233735</v>
       </c>
       <c r="G19">
-        <v>0.0007075363684299063</v>
+        <v>0.002346489527054145</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.485506668189728</v>
+        <v>1.449559786991031</v>
       </c>
       <c r="N19">
-        <v>5.163194375360149</v>
+        <v>2.134108940500425</v>
       </c>
       <c r="O19">
-        <v>8.089567601190709</v>
+        <v>3.318837752845639</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2358254695840856</v>
+        <v>0.07044222655210319</v>
       </c>
       <c r="D20">
-        <v>0.004817152200368824</v>
+        <v>0.002580874476224793</v>
       </c>
       <c r="E20">
-        <v>0.009306021418647781</v>
+        <v>0.03379746017693996</v>
       </c>
       <c r="F20">
-        <v>2.54053339563589</v>
+        <v>1.015659689414264</v>
       </c>
       <c r="G20">
-        <v>0.0007045853197525846</v>
+        <v>0.002344772971233431</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.667144969035263</v>
+        <v>1.501957484294834</v>
       </c>
       <c r="N20">
-        <v>5.342075791020477</v>
+        <v>2.19258036517715</v>
       </c>
       <c r="O20">
-        <v>8.446303639382847</v>
+        <v>3.393598681273545</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2696394867096501</v>
+        <v>0.0786424215817334</v>
       </c>
       <c r="D21">
-        <v>0.005946361532059186</v>
+        <v>0.002596024140922637</v>
       </c>
       <c r="E21">
-        <v>0.01057198793641412</v>
+        <v>0.0320829447700941</v>
       </c>
       <c r="F21">
-        <v>2.909145926582994</v>
+        <v>1.092856157965088</v>
       </c>
       <c r="G21">
-        <v>0.0006947367688005657</v>
+        <v>0.002339188057341071</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.283328236326923</v>
+        <v>1.677888293847644</v>
       </c>
       <c r="N21">
-        <v>5.945510024080761</v>
+        <v>2.389158211921426</v>
       </c>
       <c r="O21">
-        <v>9.678949514385806</v>
+        <v>3.647660846767508</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2923338883794884</v>
+        <v>0.08402363037822624</v>
       </c>
       <c r="D22">
-        <v>0.006778861179704165</v>
+        <v>0.002611357260478897</v>
       </c>
       <c r="E22">
-        <v>0.01194744542428072</v>
+        <v>0.03104958729292484</v>
       </c>
       <c r="F22">
-        <v>3.158524894872642</v>
+        <v>1.143938736630048</v>
       </c>
       <c r="G22">
-        <v>0.000688333990449339</v>
+        <v>0.00233567331943419</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.691310820680798</v>
+        <v>1.792776325703869</v>
       </c>
       <c r="N22">
-        <v>6.34195924802134</v>
+        <v>2.51770372323864</v>
       </c>
       <c r="O22">
-        <v>10.51397492742285</v>
+        <v>3.815885588993808</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2801611972726192</v>
+        <v>0.08114952736207215</v>
       </c>
       <c r="D23">
-        <v>0.006324888494988912</v>
+        <v>0.002602666678878762</v>
       </c>
       <c r="E23">
-        <v>0.01115857488298388</v>
+        <v>0.03159307882290463</v>
       </c>
       <c r="F23">
-        <v>3.024571868293208</v>
+        <v>1.116616664625809</v>
       </c>
       <c r="G23">
-        <v>0.0006917492669860734</v>
+        <v>0.002337536862103337</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.473020168541836</v>
+        <v>1.731467223406611</v>
       </c>
       <c r="N23">
-        <v>6.130159116773257</v>
+        <v>2.449091405186948</v>
       </c>
       <c r="O23">
-        <v>10.06533602854284</v>
+        <v>3.725898969157981</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2352816145595824</v>
+        <v>0.07030855820978843</v>
       </c>
       <c r="D24">
-        <v>0.004800081984555504</v>
+        <v>0.002580716350776058</v>
       </c>
       <c r="E24">
-        <v>0.009293618454004005</v>
+        <v>0.03382694280102605</v>
       </c>
       <c r="F24">
-        <v>2.534634787766535</v>
+        <v>1.01440844312738</v>
       </c>
       <c r="G24">
-        <v>0.000704747089280647</v>
+        <v>0.00234486654811187</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.657150104799527</v>
+        <v>1.49908048565328</v>
       </c>
       <c r="N24">
-        <v>5.332244027542004</v>
+        <v>2.189368883257089</v>
       </c>
       <c r="O24">
-        <v>8.426594807428842</v>
+        <v>3.389482443909401</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1889037648985834</v>
+        <v>0.05870422152440824</v>
       </c>
       <c r="D25">
-        <v>0.003473224337282588</v>
+        <v>0.002579365818954571</v>
       </c>
       <c r="E25">
-        <v>0.00922856168854036</v>
+        <v>0.03660543989553844</v>
       </c>
       <c r="F25">
-        <v>2.035373783787662</v>
+        <v>0.9067984313264645</v>
       </c>
       <c r="G25">
-        <v>0.0007190101212357302</v>
+        <v>0.002353358223638888</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.794373996089035</v>
+        <v>1.24804527272525</v>
       </c>
       <c r="N25">
-        <v>4.478781026373042</v>
+        <v>1.909650288358648</v>
       </c>
       <c r="O25">
-        <v>6.760374742191004</v>
+        <v>3.035722899019447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_174/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05022972311736851</v>
+        <v>0.1560048798849323</v>
       </c>
       <c r="D2">
-        <v>0.002596481040910703</v>
+        <v>0.002690189967543333</v>
       </c>
       <c r="E2">
-        <v>0.03896296869043603</v>
+        <v>0.01048326124418431</v>
       </c>
       <c r="F2">
-        <v>0.8297402755171106</v>
+        <v>1.686121163956116</v>
       </c>
       <c r="G2">
-        <v>0.002360120135317106</v>
+        <v>0.0007298144794022391</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.062883758891857</v>
+        <v>3.168874456183786</v>
       </c>
       <c r="N2">
-        <v>1.704167092102523</v>
+        <v>3.854847619096603</v>
       </c>
       <c r="O2">
-        <v>2.782764423270464</v>
+        <v>5.597224529860512</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04452652746790875</v>
+        <v>0.1342784090101787</v>
       </c>
       <c r="D3">
-        <v>0.002618837639710492</v>
+        <v>0.00224863281809462</v>
       </c>
       <c r="E3">
-        <v>0.04075240891142506</v>
+        <v>0.01199525086673425</v>
       </c>
       <c r="F3">
-        <v>0.7788281866051818</v>
+        <v>1.458039780798259</v>
       </c>
       <c r="G3">
-        <v>0.002365023625394678</v>
+        <v>0.000737364947336367</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.937194995681125</v>
+        <v>2.748958676234807</v>
       </c>
       <c r="N3">
-        <v>1.565259689879213</v>
+        <v>3.434054787162694</v>
       </c>
       <c r="O3">
-        <v>2.615858612385694</v>
+        <v>4.83882190161097</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04104344696453666</v>
+        <v>0.1211588418064764</v>
       </c>
       <c r="D4">
-        <v>0.002637694685045489</v>
+        <v>0.002012634496839638</v>
       </c>
       <c r="E4">
-        <v>0.04194480194131778</v>
+        <v>0.01320770538415683</v>
       </c>
       <c r="F4">
-        <v>0.7482004394339015</v>
+        <v>1.321430133770491</v>
       </c>
       <c r="G4">
-        <v>0.002368193659086967</v>
+        <v>0.0007421249590408286</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8599235961473823</v>
+        <v>2.492508428886708</v>
       </c>
       <c r="N4">
-        <v>1.480164379174255</v>
+        <v>3.176493568502082</v>
       </c>
       <c r="O4">
-        <v>2.515560593174712</v>
+        <v>4.385072953646613</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03962864026551927</v>
+        <v>0.1158598911893591</v>
       </c>
       <c r="D5">
-        <v>0.0026466433087311</v>
+        <v>0.001924127976012713</v>
       </c>
       <c r="E5">
-        <v>0.04245413219494054</v>
+        <v>0.013767600198201</v>
       </c>
       <c r="F5">
-        <v>0.7358766289481196</v>
+        <v>1.266514708455404</v>
       </c>
       <c r="G5">
-        <v>0.002369525663091264</v>
+        <v>0.0007440974143191132</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8284112127897743</v>
+        <v>2.388272961483565</v>
       </c>
       <c r="N5">
-        <v>1.445540242789463</v>
+        <v>3.071712916807286</v>
       </c>
       <c r="O5">
-        <v>2.475230818006537</v>
+        <v>4.202783637757818</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03939398544711992</v>
+        <v>0.1149826423360309</v>
       </c>
       <c r="D6">
-        <v>0.002648204828357592</v>
+        <v>0.001909862667442752</v>
       </c>
       <c r="E6">
-        <v>0.04254011675178226</v>
+        <v>0.01386439107606829</v>
       </c>
       <c r="F6">
-        <v>0.733839714579787</v>
+        <v>1.257438571701258</v>
       </c>
       <c r="G6">
-        <v>0.002369749272842066</v>
+        <v>0.0007444269572538533</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8231772060328524</v>
+        <v>2.370978949251835</v>
       </c>
       <c r="N6">
-        <v>1.439794245014582</v>
+        <v>3.054324210422209</v>
       </c>
       <c r="O6">
-        <v>2.468566667875507</v>
+        <v>4.172662236316796</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04102434801980337</v>
+        <v>0.1210871966687392</v>
       </c>
       <c r="D7">
-        <v>0.0026378102842326</v>
+        <v>0.002011411285835152</v>
       </c>
       <c r="E7">
-        <v>0.04195157629721891</v>
+        <v>0.0132149968902544</v>
       </c>
       <c r="F7">
-        <v>0.7480336019111746</v>
+        <v>1.32068660940989</v>
       </c>
       <c r="G7">
-        <v>0.00236821146006588</v>
+        <v>0.0007421514258614615</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8594987036009201</v>
+        <v>2.491101675488537</v>
       </c>
       <c r="N7">
-        <v>1.479697206443177</v>
+        <v>3.175079772243009</v>
       </c>
       <c r="O7">
-        <v>2.515014503699888</v>
+        <v>4.382604416924266</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04825930100385278</v>
+        <v>0.1484627243647623</v>
       </c>
       <c r="D8">
-        <v>0.002603109283699112</v>
+        <v>0.0025299099971825</v>
       </c>
       <c r="E8">
-        <v>0.03956044589440211</v>
+        <v>0.01094206525899732</v>
       </c>
       <c r="F8">
-        <v>0.8120534132286537</v>
+        <v>1.606697371715043</v>
       </c>
       <c r="G8">
-        <v>0.00236177788609564</v>
+        <v>0.0007323931087875547</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.019567151825854</v>
+        <v>3.023752331359219</v>
       </c>
       <c r="N8">
-        <v>1.656233816454261</v>
+        <v>3.709574426509079</v>
       </c>
       <c r="O8">
-        <v>2.724758329641418</v>
+        <v>5.333016211175675</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06260186451785898</v>
+        <v>0.2043016971306315</v>
       </c>
       <c r="D9">
-        <v>0.002576935179677164</v>
+        <v>0.003885306446200332</v>
       </c>
       <c r="E9">
-        <v>0.03562070579771159</v>
+        <v>0.009025779621403274</v>
       </c>
       <c r="F9">
-        <v>0.9427030763401376</v>
+        <v>2.20028629856985</v>
       </c>
       <c r="G9">
-        <v>0.002350419041319843</v>
+        <v>0.0007141643388047269</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.332657205409831</v>
+        <v>4.083177127011723</v>
       </c>
       <c r="N9">
-        <v>2.003807651983607</v>
+        <v>4.765470530985681</v>
       </c>
       <c r="O9">
-        <v>3.153698670386632</v>
+        <v>7.310314459089</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07324368376204404</v>
+        <v>0.2472768603571041</v>
       </c>
       <c r="D10">
-        <v>0.002584865418734594</v>
+        <v>0.00518462599673164</v>
       </c>
       <c r="E10">
-        <v>0.03319132268827829</v>
+        <v>0.009626646041014375</v>
       </c>
       <c r="F10">
-        <v>1.041938149870418</v>
+        <v>2.66495887731773</v>
       </c>
       <c r="G10">
-        <v>0.002342831306152507</v>
+        <v>0.0007012049897345297</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.562184349559118</v>
+        <v>4.876966551391376</v>
       </c>
       <c r="N10">
-        <v>2.259834130103627</v>
+        <v>5.548159174128216</v>
       </c>
       <c r="O10">
-        <v>3.480060638868622</v>
+        <v>8.862162957779105</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07810979839661059</v>
+        <v>0.2674155585480804</v>
       </c>
       <c r="D11">
-        <v>0.002594729087533665</v>
+        <v>0.005868001345332274</v>
       </c>
       <c r="E11">
-        <v>0.03218897931814091</v>
+        <v>0.01045947484858267</v>
       </c>
       <c r="F11">
-        <v>1.087817419313836</v>
+        <v>2.884792100130966</v>
       </c>
       <c r="G11">
-        <v>0.002339542050575915</v>
+        <v>0.0006953726240135138</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.666493541169388</v>
+        <v>5.243112361093665</v>
       </c>
       <c r="N11">
-        <v>2.376415712137828</v>
+        <v>5.906293511789215</v>
       </c>
       <c r="O11">
-        <v>3.631071661790202</v>
+        <v>9.597449493205261</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07995623768339044</v>
+        <v>0.2751421801140452</v>
       </c>
       <c r="D12">
-        <v>0.002599393730248423</v>
+        <v>0.006142720494016984</v>
       </c>
       <c r="E12">
-        <v>0.03182435686227159</v>
+        <v>0.0108676374328045</v>
       </c>
       <c r="F12">
-        <v>1.10529886242486</v>
+        <v>2.969469981079015</v>
       </c>
       <c r="G12">
-        <v>0.002338319708294123</v>
+        <v>0.000693170124521747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.705977296283237</v>
+        <v>5.382652033655432</v>
       </c>
       <c r="N12">
-        <v>2.420575034514911</v>
+        <v>6.042261564192472</v>
       </c>
       <c r="O12">
-        <v>3.688629756551165</v>
+        <v>9.880859951828256</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0795584050670044</v>
+        <v>0.2734733670631329</v>
       </c>
       <c r="D13">
-        <v>0.002598347297459114</v>
+        <v>0.006082798482847096</v>
       </c>
       <c r="E13">
-        <v>0.03190221762754142</v>
+        <v>0.01077538768663544</v>
       </c>
       <c r="F13">
-        <v>1.10152908695693</v>
+        <v>2.951165626021606</v>
       </c>
       <c r="G13">
-        <v>0.002338581930495338</v>
+        <v>0.0006936442527995495</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.697474483604935</v>
+        <v>5.352557312579023</v>
       </c>
       <c r="N13">
-        <v>2.411064044958039</v>
+        <v>6.012961959999245</v>
       </c>
       <c r="O13">
-        <v>3.676216864105584</v>
+        <v>9.819588081199868</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07826163016889609</v>
+        <v>0.2680491190523213</v>
       </c>
       <c r="D14">
-        <v>0.002595094049638647</v>
+        <v>0.005890266290741408</v>
       </c>
       <c r="E14">
-        <v>0.03215868119045417</v>
+        <v>0.01049111726721907</v>
       </c>
       <c r="F14">
-        <v>1.089253452849334</v>
+        <v>2.891728555138087</v>
       </c>
       <c r="G14">
-        <v>0.002339441022956251</v>
+        <v>0.0006951913193410356</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.669742216799932</v>
+        <v>5.254573554452861</v>
       </c>
       <c r="N14">
-        <v>2.380048499987879</v>
+        <v>5.917472352829975</v>
       </c>
       <c r="O14">
-        <v>3.635799473922589</v>
+        <v>9.620661465643025</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07746781023817562</v>
+        <v>0.2647402098098723</v>
       </c>
       <c r="D15">
-        <v>0.002593223282014279</v>
+        <v>0.005774497493158393</v>
       </c>
       <c r="E15">
-        <v>0.03231772341431594</v>
+        <v>0.01032947701667641</v>
       </c>
       <c r="F15">
-        <v>1.081748392304348</v>
+        <v>2.85551504339557</v>
       </c>
       <c r="G15">
-        <v>0.002339970262744906</v>
+        <v>0.0006961396408861937</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.65275330844716</v>
+        <v>5.194676583758394</v>
       </c>
       <c r="N15">
-        <v>2.361052082366257</v>
+        <v>5.85902943925737</v>
       </c>
       <c r="O15">
-        <v>3.611091510820074</v>
+        <v>9.499485054458717</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07292618854189925</v>
+        <v>0.2459739072175608</v>
       </c>
       <c r="D16">
-        <v>0.002584349236775196</v>
+        <v>0.005142041086161342</v>
       </c>
       <c r="E16">
-        <v>0.03325891042056028</v>
+        <v>0.009584487659828334</v>
       </c>
       <c r="F16">
-        <v>1.038954828676367</v>
+        <v>2.650780153528586</v>
       </c>
       <c r="G16">
-        <v>0.002343049524026414</v>
+        <v>0.0007015871708085627</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.555365327726264</v>
+        <v>4.853152961679442</v>
       </c>
       <c r="N16">
-        <v>2.252217200210737</v>
+        <v>5.524800394648366</v>
       </c>
       <c r="O16">
-        <v>3.470243585268179</v>
+        <v>8.81476278290279</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07014657675364333</v>
+        <v>0.234622868385344</v>
       </c>
       <c r="D17">
-        <v>0.002580528750693034</v>
+        <v>0.00477945210231745</v>
       </c>
       <c r="E17">
-        <v>0.03386274044238213</v>
+        <v>0.009278941755323622</v>
       </c>
       <c r="F17">
-        <v>1.012892487579265</v>
+        <v>2.52749138837541</v>
       </c>
       <c r="G17">
-        <v>0.002344980062871676</v>
+        <v>0.0007049431866570732</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.495593676952737</v>
+        <v>4.645040125888954</v>
       </c>
       <c r="N17">
-        <v>2.185476844693426</v>
+        <v>5.320329867438829</v>
       </c>
       <c r="O17">
-        <v>3.3844954697106</v>
+        <v>8.402727489768836</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06855017152440723</v>
+        <v>0.2281484338131747</v>
       </c>
       <c r="D18">
-        <v>0.002578918355105486</v>
+        <v>0.004579405368801304</v>
       </c>
       <c r="E18">
-        <v>0.03421971325494155</v>
+        <v>0.009155018256245206</v>
       </c>
       <c r="F18">
-        <v>0.9979713414022626</v>
+        <v>2.45735983619096</v>
       </c>
       <c r="G18">
-        <v>0.002346105755448952</v>
+        <v>0.0007068795980046547</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.46120488248124</v>
+        <v>4.525803135414776</v>
       </c>
       <c r="N18">
-        <v>2.14710050673915</v>
+        <v>5.202916747773543</v>
       </c>
       <c r="O18">
-        <v>3.335414752801285</v>
+        <v>8.168446719631788</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0680100562507846</v>
+        <v>0.2259651937930158</v>
       </c>
       <c r="D19">
-        <v>0.002578473026407124</v>
+        <v>0.004513059581839229</v>
       </c>
       <c r="E19">
-        <v>0.03434223334352637</v>
+        <v>0.009121614844088022</v>
       </c>
       <c r="F19">
-        <v>0.9929311257233735</v>
+        <v>2.433742495775448</v>
       </c>
       <c r="G19">
-        <v>0.002346489527054145</v>
+        <v>0.0007075363683223257</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.449559786991031</v>
+        <v>4.485506668189743</v>
       </c>
       <c r="N19">
-        <v>2.134108940500425</v>
+        <v>5.163194375360263</v>
       </c>
       <c r="O19">
-        <v>3.318837752845639</v>
+        <v>8.089567601190709</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07044222655210319</v>
+        <v>0.235825469583844</v>
       </c>
       <c r="D20">
-        <v>0.002580874476224793</v>
+        <v>0.004817152200256913</v>
       </c>
       <c r="E20">
-        <v>0.03379746017693996</v>
+        <v>0.009306021418616695</v>
       </c>
       <c r="F20">
-        <v>1.015659689414264</v>
+        <v>2.540533395635904</v>
       </c>
       <c r="G20">
-        <v>0.002344772971233431</v>
+        <v>0.0007045853198060033</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.501957484294834</v>
+        <v>4.667144969035292</v>
       </c>
       <c r="N20">
-        <v>2.19258036517715</v>
+        <v>5.342075791020477</v>
       </c>
       <c r="O20">
-        <v>3.393598681273545</v>
+        <v>8.446303639382847</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0786424215817334</v>
+        <v>0.2696394867092238</v>
       </c>
       <c r="D21">
-        <v>0.002596024140922637</v>
+        <v>0.00594636153216932</v>
       </c>
       <c r="E21">
-        <v>0.0320829447700941</v>
+        <v>0.01057198793636083</v>
       </c>
       <c r="F21">
-        <v>1.092856157965088</v>
+        <v>2.909145926582994</v>
       </c>
       <c r="G21">
-        <v>0.002339188057341071</v>
+        <v>0.000694736768636695</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.677888293847644</v>
+        <v>5.283328236326895</v>
       </c>
       <c r="N21">
-        <v>2.389158211921426</v>
+        <v>5.945510024080761</v>
       </c>
       <c r="O21">
-        <v>3.647660846767508</v>
+        <v>9.678949514385863</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08402363037822624</v>
+        <v>0.2923338883792752</v>
       </c>
       <c r="D22">
-        <v>0.002611357260478897</v>
+        <v>0.00677886117969706</v>
       </c>
       <c r="E22">
-        <v>0.03104958729292484</v>
+        <v>0.01194744542427717</v>
       </c>
       <c r="F22">
-        <v>1.143938736630048</v>
+        <v>3.158524894872642</v>
       </c>
       <c r="G22">
-        <v>0.00233567331943419</v>
+        <v>0.0006883339903305053</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.792776325703869</v>
+        <v>5.691310820680769</v>
       </c>
       <c r="N22">
-        <v>2.51770372323864</v>
+        <v>6.34195924802134</v>
       </c>
       <c r="O22">
-        <v>3.815885588993808</v>
+        <v>10.51397492742291</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08114952736207215</v>
+        <v>0.2801611972725766</v>
       </c>
       <c r="D23">
-        <v>0.002602666678878762</v>
+        <v>0.006324888495104375</v>
       </c>
       <c r="E23">
-        <v>0.03159307882290463</v>
+        <v>0.01115857488298566</v>
       </c>
       <c r="F23">
-        <v>1.116616664625809</v>
+        <v>3.024571868293208</v>
       </c>
       <c r="G23">
-        <v>0.002337536862103337</v>
+        <v>0.0006917492669334521</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.731467223406611</v>
+        <v>5.47302016854178</v>
       </c>
       <c r="N23">
-        <v>2.449091405186948</v>
+        <v>6.1301591167732</v>
       </c>
       <c r="O23">
-        <v>3.725898969157981</v>
+        <v>10.06533602854284</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07030855820978843</v>
+        <v>0.2352816145595824</v>
       </c>
       <c r="D24">
-        <v>0.002580716350776058</v>
+        <v>0.00480008198444537</v>
       </c>
       <c r="E24">
-        <v>0.03382694280102605</v>
+        <v>0.009293618453977359</v>
       </c>
       <c r="F24">
-        <v>1.01440844312738</v>
+        <v>2.534634787766521</v>
       </c>
       <c r="G24">
-        <v>0.00234486654811187</v>
+        <v>0.0007047470893351939</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.49908048565328</v>
+        <v>4.657150104799555</v>
       </c>
       <c r="N24">
-        <v>2.189368883257089</v>
+        <v>5.332244027542004</v>
       </c>
       <c r="O24">
-        <v>3.389482443909401</v>
+        <v>8.426594807428785</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05870422152440824</v>
+        <v>0.1889037648990239</v>
       </c>
       <c r="D25">
-        <v>0.002579365818954571</v>
+        <v>0.003473224337378511</v>
       </c>
       <c r="E25">
-        <v>0.03660543989553844</v>
+        <v>0.009228561688535919</v>
       </c>
       <c r="F25">
-        <v>0.9067984313264645</v>
+        <v>2.035373783787662</v>
       </c>
       <c r="G25">
-        <v>0.002353358223638888</v>
+        <v>0.0007190101212843214</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.24804527272525</v>
+        <v>3.794373996089064</v>
       </c>
       <c r="N25">
-        <v>1.909650288358648</v>
+        <v>4.478781026373042</v>
       </c>
       <c r="O25">
-        <v>3.035722899019447</v>
+        <v>6.760374742191004</v>
       </c>
     </row>
   </sheetData>
